--- a/biology/Botanique/Raphia/Raphia.xlsx
+++ b/biology/Botanique/Raphia/Raphia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphia (les raphias, mot d'origine malgache attesté en 1652[1]) est un genre de plantes de la famille des Arecaceae (les palmiers) que l'on rencontre dans les milieux marécageux et le long des fleuves. Plante monocarpique ou hapaxanthe (la tige meurt après la fructification mais les racines restent vivantes, émettant de nouveaux rejets), l'espèce Raphia farinifera originaire de Madagascar donne une fibre végétale provenant de ses feuilles qui, par extension, porte le nom de raphia. Les feuilles de Raphia regalis peuvent atteindre 25 m sur 4 m, ce qui en fait les feuilles les plus longues du règne végétal[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphia (les raphias, mot d'origine malgache attesté en 1652) est un genre de plantes de la famille des Arecaceae (les palmiers) que l'on rencontre dans les milieux marécageux et le long des fleuves. Plante monocarpique ou hapaxanthe (la tige meurt après la fructification mais les racines restent vivantes, émettant de nouveaux rejets), l'espèce Raphia farinifera originaire de Madagascar donne une fibre végétale provenant de ses feuilles qui, par extension, porte le nom de raphia. Les feuilles de Raphia regalis peuvent atteindre 25 m sur 4 m, ce qui en fait les feuilles les plus longues du règne végétal,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (7 mai 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (7 mai 2017) :
 Raphia abrupta Grote, 1863
 Raphia aethiops Bang-Haas, 1912
 Raphia approximata Alphéraky, 1887
@@ -528,7 +542,7 @@
 Raphia pallula Edwards, 1886
 Raphia peusteria Püngeler, 1907
 Raphia piazzi Hill, 1927
-Selon World Checklist of Selected Plant Families (WCSP)  (7 mai 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (7 mai 2017) :
 Raphia africana Otedoh (1982)
 Raphia australis Oberm. &amp; Strey (1969)
 Raphia farinifera (Gaertn.) Hyl. (1952)
@@ -581,10 +595,12 @@
           <t>Propriétés et utilisations de la fibre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le raphia est une fibre textile très solide, utilisée pour fabriquer des cordages, des liens et du tissu d'ameublement. À Madagascar, les fibres de ses feuilles et folioles servent par exemple à confectionner le jabo-landy ou la rabane. La ficelle de raphia est utilisable pour tenir le greffon sur un arbre.
-L'art du tissage des étoffes en raphia (étoffes Kongo) était emblématique de la royauté et de la noblesse au Kongo et au Loango. On distingue les couvre-chefs Mpu, le Kinzemba, tunique cérémonielle, ou des paniers présentoirs[6].
+L'art du tissage des étoffes en raphia (étoffes Kongo) était emblématique de la royauté et de la noblesse au Kongo et au Loango. On distingue les couvre-chefs Mpu, le Kinzemba, tunique cérémonielle, ou des paniers présentoirs.
 Propriétés et utilisations de la fibre de raphia
 Raphia est un genre de palmiers dont les feuilles fournissent une fibre naturelle utilisée dans une variété de produits artisanaux et industriels. Les fibres de raphia sont extraites des feuilles de ces palmiers, principalement trouvés en Afrique, Madagascar, et certaines régions d'Amérique du Sud et d'Asie.
 Propriétés de la fibre de raphia
@@ -594,8 +610,8 @@
 Impact sur le commerce et le développement durable
 La production de raphia soutient les économies locales, particulièrement dans les régions rurales de Madagascar, où les techniques de récolte et de préparation de la fibre sont transmises de génération en génération. Des entreprises comme Mihaja, qui se spécialisent dans les sacs en raphia, contribuent à la valorisation de cette fibre naturelle tout en adhérant aux principes du commerce équitable. Ces pratiques encouragent non seulement l'emploi local mais favorisent également la production durable de raphia, soulignant l'importance de préserver les méthodes traditionnelles tout en adoptant des pratiques respectueuses de l'environnement.
 Au Togo, il sert pour la fabrication des échasses : la nervure de la feuille sert à faire le montant de l'échasse elle-même (entre deux et cinq mètres), les fibres tressées servant à faire la corde qui sert à entourer la jambe contre l'échasse.
-En Afrique, son suc fournit une liqueur semblable au vin de palme mais plus colorée et plus forte, le « vin de Bourdon »[7].
-Historiquement, le raphia a été utilisé lors de la Première Guerre mondiale pour des opérations de camouflage[8].
+En Afrique, son suc fournit une liqueur semblable au vin de palme mais plus colorée et plus forte, le « vin de Bourdon ».
+Historiquement, le raphia a été utilisé lors de la Première Guerre mondiale pour des opérations de camouflage.
 </t>
         </is>
       </c>
